--- a/data/trans_media/Q46-Edad-trans_media.xlsx
+++ b/data/trans_media/Q46-Edad-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,34; 74,14</t>
+          <t>72,38; 74,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,51; 74,77</t>
+          <t>72,4; 74,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,53; 74,07</t>
+          <t>71,43; 74,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,04; 76,14</t>
+          <t>71,88; 76,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,23; 60,04</t>
+          <t>58,22; 60,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,52; 61,54</t>
+          <t>59,31; 61,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,47; 61,56</t>
+          <t>59,41; 61,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>60,23; 63,78</t>
+          <t>60,19; 64,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,44; 67,04</t>
+          <t>65,55; 67,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>66,35; 68,12</t>
+          <t>66,33; 68,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65,8; 67,7</t>
+          <t>65,88; 67,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>66,64; 69,81</t>
+          <t>66,62; 69,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,8; 78,42</t>
+          <t>76,79; 78,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>78,77; 80,72</t>
+          <t>78,73; 80,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,26; 79,59</t>
+          <t>77,28; 79,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,58; 80,83</t>
+          <t>77,51; 80,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,19; 64,01</t>
+          <t>62,18; 64,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,77; 66,89</t>
+          <t>64,82; 66,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>64,74; 66,75</t>
+          <t>64,73; 66,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,43; 73,01</t>
+          <t>65,46; 72,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,2; 71,65</t>
+          <t>70,15; 71,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>72,38; 74,07</t>
+          <t>72,44; 74,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>71,41; 73,12</t>
+          <t>71,41; 73,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,49; 75,16</t>
+          <t>71,4; 75,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,26; 81,25</t>
+          <t>79,43; 81,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,92; 83,88</t>
+          <t>81,88; 83,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,4; 82,63</t>
+          <t>80,34; 82,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,73; 83,27</t>
+          <t>80,58; 83,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,05; 65,99</t>
+          <t>63,93; 65,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,43; 68,28</t>
+          <t>66,36; 68,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,01; 68,13</t>
+          <t>66,03; 68,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,65; 260,54</t>
+          <t>67,54; 262,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>71,56; 73,13</t>
+          <t>71,55; 73,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>74,12; 75,74</t>
+          <t>74,12; 75,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,57; 75,23</t>
+          <t>73,48; 75,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>74,54; 173,03</t>
+          <t>74,51; 180,25</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,43; 81,53</t>
+          <t>79,36; 81,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,09; 83,3</t>
+          <t>81,06; 83,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,05; 84,37</t>
+          <t>82,18; 84,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,05; 88,17</t>
+          <t>83,09; 88,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,74; 67,74</t>
+          <t>65,71; 67,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,85; 69,85</t>
+          <t>67,8; 69,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,9; 70,18</t>
+          <t>67,93; 70,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>68,31; 71,13</t>
+          <t>68,35; 71,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,76; 74,54</t>
+          <t>72,77; 74,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,6; 76,29</t>
+          <t>74,62; 76,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>75,17; 76,98</t>
+          <t>75,23; 77,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>75,77; 80,42</t>
+          <t>75,72; 79,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,17; 80,4</t>
+          <t>78,05; 80,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,68; 81,2</t>
+          <t>78,56; 81,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,1; 83,74</t>
+          <t>81,07; 83,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,99; 84,31</t>
+          <t>81,98; 84,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,66; 69,75</t>
+          <t>67,67; 69,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>70,3; 73,04</t>
+          <t>70,52; 73,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>68,98; 71,35</t>
+          <t>68,97; 71,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,92; 70,54</t>
+          <t>68,85; 70,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73,04; 74,74</t>
+          <t>73,02; 74,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>74,77; 76,64</t>
+          <t>74,68; 76,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>75,13; 76,97</t>
+          <t>75,14; 77,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>75,55; 77,21</t>
+          <t>75,64; 77,16</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,83; 77,61</t>
+          <t>75,76; 77,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78,08; 80,17</t>
+          <t>78,11; 80,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,59; 80,64</t>
+          <t>78,69; 80,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>77,67; 79,23</t>
+          <t>77,75; 79,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,23; 71,01</t>
+          <t>69,25; 71,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>71,21; 73,12</t>
+          <t>71,28; 73,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,66; 71,6</t>
+          <t>69,63; 71,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,47; 74,64</t>
+          <t>69,49; 75,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>72,23; 73,6</t>
+          <t>72,35; 73,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,43; 75,85</t>
+          <t>74,39; 75,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,79; 75,29</t>
+          <t>73,71; 75,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>73,38; 75,99</t>
+          <t>73,38; 76,04</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,55; 78,4</t>
+          <t>77,6; 78,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,43; 80,33</t>
+          <t>79,41; 80,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,44; 80,4</t>
+          <t>79,45; 80,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>80,17; 81,84</t>
+          <t>80,23; 82,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,13; 65,98</t>
+          <t>65,09; 65,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,59; 68,47</t>
+          <t>67,58; 68,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>67,21; 68,11</t>
+          <t>67,18; 68,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>68,43; 104,59</t>
+          <t>68,37; 104,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,35; 72,0</t>
+          <t>71,36; 71,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>73,5; 74,19</t>
+          <t>73,5; 74,22</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73,31; 74,06</t>
+          <t>73,34; 74,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>74,25; 90,34</t>
+          <t>74,24; 91,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q46-Edad-trans_media.xlsx
+++ b/data/trans_media/Q46-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,38; 74,14</t>
+          <t>72,31; 74,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,4; 74,66</t>
+          <t>72,34; 74,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,43; 74,02</t>
+          <t>71,49; 74,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,22; 60,09</t>
+          <t>58,19; 60,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,31; 61,43</t>
+          <t>59,43; 61,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,41; 61,65</t>
+          <t>59,5; 61,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,55; 67,17</t>
+          <t>65,57; 67,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>66,33; 68,14</t>
+          <t>66,35; 68,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65,88; 67,7</t>
+          <t>65,82; 67,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,79; 78,47</t>
+          <t>76,61; 78,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>78,73; 80,7</t>
+          <t>78,81; 80,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,28; 79,56</t>
+          <t>77,22; 79,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,18; 64,08</t>
+          <t>62,27; 64,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,82; 66,96</t>
+          <t>64,82; 66,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>64,73; 66,75</t>
+          <t>64,7; 66,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,15; 71,69</t>
+          <t>70,09; 71,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>72,44; 74,07</t>
+          <t>72,41; 74,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>71,41; 73,1</t>
+          <t>71,34; 73,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,43; 81,35</t>
+          <t>79,37; 81,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,88; 83,83</t>
+          <t>81,82; 83,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,34; 82,57</t>
+          <t>80,49; 82,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,93; 65,97</t>
+          <t>64,05; 66,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,36; 68,21</t>
+          <t>66,34; 68,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,03; 68,01</t>
+          <t>66,13; 68,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>71,55; 73,18</t>
+          <t>71,61; 73,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>74,12; 75,7</t>
+          <t>74,14; 75,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,48; 75,17</t>
+          <t>73,58; 75,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,36; 81,58</t>
+          <t>79,41; 81,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,06; 83,28</t>
+          <t>81,09; 83,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,18; 84,39</t>
+          <t>82,08; 84,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,71; 67,84</t>
+          <t>65,8; 67,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,8; 69,93</t>
+          <t>67,78; 69,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,93; 70,27</t>
+          <t>67,92; 70,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,77; 74,52</t>
+          <t>72,75; 74,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,62; 76,36</t>
+          <t>74,65; 76,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>75,23; 77,1</t>
+          <t>75,18; 77,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,05; 80,47</t>
+          <t>78,2; 80,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,56; 81,08</t>
+          <t>78,7; 81,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,07; 83,47</t>
+          <t>81,02; 83,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,67; 69,8</t>
+          <t>67,63; 69,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>70,52; 73,05</t>
+          <t>70,31; 73,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>68,97; 71,4</t>
+          <t>68,98; 71,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73,02; 74,77</t>
+          <t>72,99; 74,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>74,68; 76,65</t>
+          <t>74,7; 76,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>75,14; 77,01</t>
+          <t>75,04; 77,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,76; 77,69</t>
+          <t>75,79; 77,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78,11; 80,11</t>
+          <t>78,09; 80,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,69; 80,64</t>
+          <t>78,67; 80,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,25; 71,05</t>
+          <t>69,24; 71,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>71,28; 73,12</t>
+          <t>71,25; 73,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,63; 71,6</t>
+          <t>69,72; 71,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>72,35; 73,69</t>
+          <t>72,31; 73,61</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,39; 75,89</t>
+          <t>74,52; 75,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,71; 75,19</t>
+          <t>73,74; 75,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,6; 78,35</t>
+          <t>77,57; 78,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,41; 80,34</t>
+          <t>79,42; 80,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,45; 80,44</t>
+          <t>79,46; 80,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,09; 65,93</t>
+          <t>65,13; 65,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,58; 68,48</t>
+          <t>67,53; 68,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>67,18; 68,14</t>
+          <t>67,25; 68,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,36; 71,99</t>
+          <t>71,36; 72,01</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>73,5; 74,22</t>
+          <t>73,51; 74,23</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73,34; 74,05</t>
+          <t>73,32; 74,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
